--- a/account.xlsx
+++ b/account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15600"/>
+    <workbookView windowWidth="28000" windowHeight="16200"/>
   </bookViews>
   <sheets>
     <sheet name="JZT账本" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>时间</t>
   </si>
@@ -213,6 +213,15 @@
   </si>
   <si>
     <t>https://etherscan.io/tx/0x1386734738159aa6274e1d6463e0db279b6f03199794576b35c2df2983f07610</t>
+  </si>
+  <si>
+    <t>Liberations</t>
+  </si>
+  <si>
+    <t>研发支出</t>
+  </si>
+  <si>
+    <t>lipangit</t>
   </si>
   <si>
     <t>常用地址</t>
@@ -253,12 +262,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -270,6 +279,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -298,25 +314,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,22 +337,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,8 +367,39 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,30 +434,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -428,19 +444,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,163 +624,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,6 +652,45 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,196 +735,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -888,13 +904,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1218,12 +1237,12 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="22" customHeight="1"/>
@@ -1290,7 +1309,7 @@
       <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1319,7 +1338,7 @@
       <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1762,7 +1781,7 @@
       <c r="D22" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="7">
         <v>1173785966</v>
       </c>
       <c r="F22">
@@ -1929,7 +1948,6 @@
       <c r="C29">
         <v>17400</v>
       </c>
-      <c r="D29"/>
       <c r="E29" t="s">
         <v>11</v>
       </c>
@@ -1942,7 +1960,7 @@
       <c r="H29" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="8"/>
+      <c r="I29" s="9"/>
     </row>
     <row r="30" customFormat="1" customHeight="1" spans="1:9">
       <c r="A30" s="5">
@@ -1969,8 +1987,34 @@
       <c r="H30" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="8" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:8">
+      <c r="A31" s="5">
+        <v>43814</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31">
+        <v>506400</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31">
+        <v>11000</v>
+      </c>
+      <c r="G31" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1994,7 +2038,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -2010,13 +2054,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:4">
@@ -2027,7 +2071,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:4">
@@ -2038,7 +2082,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="2:4">
@@ -2046,10 +2090,10 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:4">
@@ -2060,10 +2104,10 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:4">
@@ -2074,10 +2118,10 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/account.xlsx
+++ b/account.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
   <si>
     <t>时间</t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t>lipangit</t>
+  </si>
+  <si>
+    <t>0xf7ccfdfe86947ec361be0f4985209f9436a56c10</t>
+  </si>
+  <si>
+    <t>bythewaydai</t>
   </si>
   <si>
     <t>常用地址</t>
@@ -262,12 +268,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -284,8 +290,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF586069"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -308,7 +321,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,21 +336,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,8 +380,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,68 +441,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -444,19 +457,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,61 +595,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,7 +613,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,43 +625,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,37 +637,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,47 +654,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,6 +685,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -725,13 +725,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,152 +753,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -904,16 +917,31 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="41" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1237,12 +1265,12 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="22" customHeight="1"/>
@@ -1309,7 +1337,7 @@
       <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="13" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1338,7 +1366,7 @@
       <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="13" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1781,7 +1809,7 @@
       <c r="D22" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="11">
         <v>1173785966</v>
       </c>
       <c r="F22">
@@ -1960,7 +1988,7 @@
       <c r="H29" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="9"/>
+      <c r="I29" s="14"/>
     </row>
     <row r="30" customFormat="1" customHeight="1" spans="1:9">
       <c r="A30" s="5">
@@ -1987,41 +2015,81 @@
       <c r="H30" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="8" t="s">
+      <c r="I30" s="13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:8">
-      <c r="A31" s="5">
+    <row r="31" customHeight="1" spans="1:9">
+      <c r="A31" s="6">
         <v>43814</v>
       </c>
-      <c r="B31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31">
+      <c r="B31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
         <v>506400</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="7">
         <v>11000</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="7" t="s">
         <v>68</v>
       </c>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:9">
+      <c r="A32" s="6">
+        <v>43817</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="9">
+        <v>499400</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="7">
+        <v>7000</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" customHeight="1" spans="1:9">
+      <c r="A33" s="10"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I3" r:id="rId1" display="https://etherscan.io/tx/0x8f6a619c242ebfc86eba0ebddee7fee63fd10ccfadaef99b74d629d2d504f7c8"/>
     <hyperlink ref="I2" r:id="rId2" display="https://etherscan.io/tx/0xc7b4ab8e41299b234db8b82ad569bea74f07736a0b5729c3d2f53b768d05e8d5"/>
     <hyperlink ref="I30" r:id="rId3" display="https://etherscan.io/tx/0x1386734738159aa6274e1d6463e0db279b6f03199794576b35c2df2983f07610"/>
+    <hyperlink ref="E32" r:id="rId4" display="bythewaydai" tooltip="https://github.com/Jzvd/JiaoZiVideoPlayer/commits?author=bythewaydai"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -2054,13 +2122,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:4">
@@ -2071,7 +2139,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:4">
@@ -2082,7 +2150,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="2:4">
@@ -2090,10 +2158,10 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:4">
@@ -2104,10 +2172,10 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:4">
@@ -2118,10 +2186,10 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/account.xlsx
+++ b/account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="16200"/>
+    <workbookView windowWidth="28000" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="JZT账本" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
   <si>
     <t>时间</t>
   </si>
@@ -228,6 +228,15 @@
   </si>
   <si>
     <t>bythewaydai</t>
+  </si>
+  <si>
+    <t>0xd964431865d97a6ff61f867b0096aa8eac307b92</t>
+  </si>
+  <si>
+    <t>匿名</t>
+  </si>
+  <si>
+    <t>一日咨询服务</t>
   </si>
   <si>
     <t>常用地址</t>
@@ -268,12 +277,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -297,6 +306,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF586069"/>
       <name val="宋体"/>
@@ -321,6 +337,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -335,20 +365,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -358,6 +374,30 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -365,8 +405,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,74 +463,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -457,31 +473,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,151 +653,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,6 +664,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -679,21 +704,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -740,11 +750,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,152 +769,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -926,22 +942,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="41" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="41" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1270,7 +1283,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="22" customHeight="1"/>
@@ -1337,7 +1350,7 @@
       <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1366,7 +1379,7 @@
       <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1809,7 +1822,7 @@
       <c r="D22" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <v>1173785966</v>
       </c>
       <c r="F22">
@@ -1988,7 +2001,7 @@
       <c r="H29" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="14"/>
+      <c r="I29" s="13"/>
     </row>
     <row r="30" customFormat="1" customHeight="1" spans="1:9">
       <c r="A30" s="5">
@@ -2015,7 +2028,7 @@
       <c r="H30" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="13" t="s">
+      <c r="I30" s="12" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2053,13 +2066,13 @@
       <c r="B32" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="8">
         <v>499400</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="11" t="s">
         <v>70</v>
       </c>
       <c r="F32" s="7">
@@ -2074,14 +2087,30 @@
       <c r="I32" s="7"/>
     </row>
     <row r="33" customHeight="1" spans="1:9">
-      <c r="A33" s="10"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
+      <c r="A33" s="6">
+        <v>43828</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="7">
+        <v>496900</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="7">
+        <v>2500</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="I33" s="7"/>
     </row>
   </sheetData>
@@ -2122,13 +2151,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:4">
@@ -2139,7 +2168,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:4">
@@ -2150,7 +2179,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="2:4">
@@ -2158,10 +2187,10 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:4">
@@ -2172,10 +2201,10 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:4">
@@ -2186,10 +2215,10 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/account.xlsx
+++ b/account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15600"/>
+    <workbookView windowWidth="28000" windowHeight="16200"/>
   </bookViews>
   <sheets>
     <sheet name="JZT账本" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
   <si>
     <t>时间</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>一日咨询服务</t>
+  </si>
+  <si>
+    <t>公众号糖包</t>
   </si>
   <si>
     <t>常用地址</t>
@@ -277,10 +280,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -344,14 +347,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,26 +401,61 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -396,73 +466,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -473,187 +476,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,16 +683,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,32 +759,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,94 +772,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -865,28 +868,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -895,19 +898,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1278,7 +1281,7 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
@@ -2112,6 +2115,26 @@
         <v>68</v>
       </c>
       <c r="I33" s="7"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:8">
+      <c r="A34" s="5">
+        <v>43834</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34">
+        <v>495481</v>
+      </c>
+      <c r="F34">
+        <v>1419</v>
+      </c>
+      <c r="G34" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2151,13 +2174,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:4">
@@ -2168,7 +2191,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:4">
@@ -2179,7 +2202,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="2:4">
@@ -2187,10 +2210,10 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:4">
@@ -2201,10 +2224,10 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:4">
@@ -2215,10 +2238,10 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/account.xlsx
+++ b/account.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
   <si>
     <t>时间</t>
   </si>
@@ -240,6 +240,15 @@
   </si>
   <si>
     <t>公众号糖包</t>
+  </si>
+  <si>
+    <t>0x66b8c0f4ba4426724d2d846ed21f50dadf8f7ef5</t>
+  </si>
+  <si>
+    <t>ZdzCoding</t>
+  </si>
+  <si>
+    <t>完成仿抖音列表功能</t>
   </si>
   <si>
     <t>常用地址</t>
@@ -280,9 +289,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -354,6 +363,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -363,6 +380,45 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,33 +432,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,56 +469,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -482,19 +491,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,108 +659,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -615,48 +666,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,11 +744,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,9 +768,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -772,142 +781,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -917,7 +926,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -943,6 +952,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1281,12 +1293,12 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="22" customHeight="1"/>
@@ -1353,7 +1365,7 @@
       <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="13" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1382,7 +1394,7 @@
       <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="13" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1825,7 +1837,7 @@
       <c r="D22" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="11">
         <v>1173785966</v>
       </c>
       <c r="F22">
@@ -2004,7 +2016,7 @@
       <c r="H29" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="13"/>
+      <c r="I29" s="14"/>
     </row>
     <row r="30" customFormat="1" customHeight="1" spans="1:9">
       <c r="A30" s="5">
@@ -2031,7 +2043,7 @@
       <c r="H30" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="12" t="s">
+      <c r="I30" s="13" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2075,7 +2087,7 @@
       <c r="D32" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="12" t="s">
         <v>70</v>
       </c>
       <c r="F32" s="7">
@@ -2133,6 +2145,32 @@
         <v>74</v>
       </c>
       <c r="H34" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:8">
+      <c r="A35" s="5">
+        <v>43836</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35">
+        <v>465481</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35">
+        <v>30000</v>
+      </c>
+      <c r="G35" t="s">
+        <v>77</v>
+      </c>
+      <c r="H35" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2174,13 +2212,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:4">
@@ -2191,7 +2229,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:4">
@@ -2202,7 +2240,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="2:4">
@@ -2210,10 +2248,10 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:4">
@@ -2224,10 +2262,10 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:4">
@@ -2238,10 +2276,10 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/account.xlsx
+++ b/account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="16200"/>
+    <workbookView windowWidth="28000" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="JZT账本" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
   <si>
     <t>时间</t>
   </si>
@@ -249,6 +249,12 @@
   </si>
   <si>
     <t>完成仿抖音列表功能</t>
+  </si>
+  <si>
+    <t>linanxing</t>
+  </si>
+  <si>
+    <t>完成wifi监听功能</t>
   </si>
   <si>
     <t>常用地址</t>
@@ -289,9 +295,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -362,8 +368,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -378,13 +398,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -395,6 +408,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -402,7 +423,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,14 +439,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -441,36 +476,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,31 +497,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,145 +647,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,6 +690,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,6 +727,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -723,30 +749,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,13 +768,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,124 +787,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -907,16 +913,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1293,12 +1299,12 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="22" customHeight="1"/>
@@ -2158,7 +2164,7 @@
       <c r="C35">
         <v>465481</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="9" t="s">
         <v>75</v>
       </c>
       <c r="E35" t="s">
@@ -2171,6 +2177,32 @@
         <v>77</v>
       </c>
       <c r="H35" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:8">
+      <c r="A36" s="5">
+        <v>43845</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36">
+        <v>454981</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36">
+        <v>10500</v>
+      </c>
+      <c r="G36" t="s">
+        <v>79</v>
+      </c>
+      <c r="H36" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2212,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:4">
@@ -2229,7 +2261,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:4">
@@ -2240,7 +2272,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="2:4">
@@ -2248,10 +2280,10 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:4">
@@ -2262,10 +2294,10 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:4">
@@ -2276,10 +2308,10 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/account.xlsx
+++ b/account.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
   <si>
     <t>时间</t>
   </si>
@@ -255,6 +255,18 @@
   </si>
   <si>
     <t>完成wifi监听功能</t>
+  </si>
+  <si>
+    <t>duguodong258</t>
+  </si>
+  <si>
+    <t>完成本地播放功能</t>
+  </si>
+  <si>
+    <t>列表到详情页平滑过渡的动画</t>
+  </si>
+  <si>
+    <t>列表滑动自动播放功能</t>
   </si>
   <si>
     <t>常用地址</t>
@@ -295,12 +307,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -331,6 +343,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11.25"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF586069"/>
       <name val="宋体"/>
@@ -355,12 +374,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -376,54 +450,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -439,7 +466,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,35 +486,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -497,25 +516,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,151 +684,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,8 +707,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,32 +716,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,21 +763,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -782,153 +777,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -963,19 +982,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="41" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="41" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1299,12 +1318,12 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="22" customHeight="1"/>
@@ -2190,7 +2209,7 @@
       <c r="C36">
         <v>454981</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E36" t="s">
@@ -2203,6 +2222,84 @@
         <v>79</v>
       </c>
       <c r="H36" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:8">
+      <c r="A37" s="5">
+        <v>43850</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37">
+        <v>444981</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37">
+        <v>10000</v>
+      </c>
+      <c r="G37" t="s">
+        <v>81</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:8">
+      <c r="A38" s="5">
+        <v>43850</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38">
+        <v>369981</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38">
+        <v>75000</v>
+      </c>
+      <c r="G38" t="s">
+        <v>82</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:8">
+      <c r="A39" s="5">
+        <v>43850</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39">
+        <v>339981</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39">
+        <v>30000</v>
+      </c>
+      <c r="G39" t="s">
+        <v>83</v>
+      </c>
+      <c r="H39" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2244,13 +2341,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:4">
@@ -2261,7 +2358,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:4">
@@ -2272,7 +2369,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="2:4">
@@ -2280,10 +2377,10 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:4">
@@ -2294,10 +2391,10 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:4">
@@ -2308,10 +2405,10 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/account.xlsx
+++ b/account.xlsx
@@ -307,10 +307,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -374,21 +374,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -396,23 +381,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,16 +396,31 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,6 +428,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,21 +456,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -486,9 +463,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,13 +516,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,103 +672,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,55 +690,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,8 +707,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,23 +716,47 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,41 +787,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,94 +806,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -902,28 +902,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -932,22 +932,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1318,12 +1318,12 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="22" customHeight="1"/>
@@ -2300,6 +2300,26 @@
         <v>83</v>
       </c>
       <c r="H39" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:8">
+      <c r="A40" s="5">
+        <v>43861</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40">
+        <v>334095</v>
+      </c>
+      <c r="F40">
+        <v>5886</v>
+      </c>
+      <c r="G40" t="s">
+        <v>74</v>
+      </c>
+      <c r="H40" s="7" t="s">
         <v>68</v>
       </c>
     </row>

--- a/account.xlsx
+++ b/account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15600"/>
+    <workbookView windowWidth="28000" windowHeight="16200"/>
   </bookViews>
   <sheets>
     <sheet name="JZT账本" sheetId="1" r:id="rId1"/>
@@ -307,10 +307,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -374,14 +374,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,16 +388,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,8 +434,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,15 +466,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,33 +480,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -500,6 +493,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -510,187 +510,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,26 +707,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,6 +724,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,6 +775,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -772,32 +793,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,148 +806,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1318,12 +1318,12 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
+      <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="22" customHeight="1"/>
@@ -2320,6 +2320,26 @@
         <v>74</v>
       </c>
       <c r="H40" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:8">
+      <c r="A41" s="5">
+        <v>43868</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41">
+        <v>324095</v>
+      </c>
+      <c r="F41">
+        <v>10000</v>
+      </c>
+      <c r="G41" t="s">
+        <v>74</v>
+      </c>
+      <c r="H41" s="7" t="s">
         <v>68</v>
       </c>
     </row>

--- a/account.xlsx
+++ b/account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="16200"/>
+    <workbookView windowWidth="28000" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="JZT账本" sheetId="1" r:id="rId1"/>
@@ -307,8 +307,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -373,13 +373,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -396,7 +389,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,17 +448,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,7 +480,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -451,15 +488,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,35 +500,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -510,61 +510,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,121 +690,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,6 +728,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -743,17 +767,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,26 +796,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -806,148 +806,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1318,12 +1318,12 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="22" customHeight="1"/>
@@ -2340,6 +2340,26 @@
         <v>74</v>
       </c>
       <c r="H41" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:8">
+      <c r="A42" s="5">
+        <v>43882</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42">
+        <v>314095</v>
+      </c>
+      <c r="F42">
+        <v>10000</v>
+      </c>
+      <c r="G42" t="s">
+        <v>74</v>
+      </c>
+      <c r="H42" s="7" t="s">
         <v>68</v>
       </c>
     </row>

--- a/account.xlsx
+++ b/account.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
   <si>
     <t>时间</t>
   </si>
@@ -267,6 +267,15 @@
   </si>
   <si>
     <t>列表滑动自动播放功能</t>
+  </si>
+  <si>
+    <t>0x281b54ed7efd734a8e6b6292943d70b7e6c0dac8</t>
+  </si>
+  <si>
+    <t>cs1439071609</t>
+  </si>
+  <si>
+    <t>提出实锤bug</t>
   </si>
   <si>
     <t>常用地址</t>
@@ -307,10 +316,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -373,6 +382,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -388,8 +404,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,21 +442,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -426,8 +450,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,8 +487,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,39 +503,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,181 +525,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,23 +716,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,6 +751,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -777,181 +810,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -980,6 +989,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1318,12 +1330,12 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="22" customHeight="1"/>
@@ -1390,7 +1402,7 @@
       <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="14" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1419,7 +1431,7 @@
       <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="14" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1862,7 +1874,7 @@
       <c r="D22" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="12">
         <v>1173785966</v>
       </c>
       <c r="F22">
@@ -2041,7 +2053,7 @@
       <c r="H29" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="14"/>
+      <c r="I29" s="15"/>
     </row>
     <row r="30" customFormat="1" customHeight="1" spans="1:9">
       <c r="A30" s="5">
@@ -2068,7 +2080,7 @@
       <c r="H30" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="13" t="s">
+      <c r="I30" s="14" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2112,7 +2124,7 @@
       <c r="D32" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="13" t="s">
         <v>70</v>
       </c>
       <c r="F32" s="7">
@@ -2360,6 +2372,32 @@
         <v>74</v>
       </c>
       <c r="H42" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:8">
+      <c r="A43" s="5">
+        <v>43883</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43">
+        <v>313095</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43">
+        <v>1000</v>
+      </c>
+      <c r="G43" t="s">
+        <v>86</v>
+      </c>
+      <c r="H43" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2401,13 +2439,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:4">
@@ -2418,7 +2456,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:4">
@@ -2429,7 +2467,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="2:4">
@@ -2437,10 +2475,10 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:4">
@@ -2451,10 +2489,10 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:4">
@@ -2465,10 +2503,10 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/account.xlsx
+++ b/account.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
   <si>
     <t>时间</t>
   </si>
@@ -276,6 +276,15 @@
   </si>
   <si>
     <t>提出实锤bug</t>
+  </si>
+  <si>
+    <t>0xc13f0580cc6341297aecf4d66ac2903b9c8d91e6</t>
+  </si>
+  <si>
+    <t>pg199035</t>
+  </si>
+  <si>
+    <t>做首页gif展示图</t>
   </si>
   <si>
     <t>常用地址</t>
@@ -317,9 +326,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -383,7 +392,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,29 +400,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,8 +436,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,54 +460,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,6 +481,43 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -525,25 +534,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,7 +654,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,133 +684,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,33 +719,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -770,17 +752,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,11 +798,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -815,94 +824,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -914,25 +923,25 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -941,26 +950,26 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -989,9 +998,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1330,12 +1336,12 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomLeft" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="22" customHeight="1"/>
@@ -1402,7 +1408,7 @@
       <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1431,7 +1437,7 @@
       <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1874,7 +1880,7 @@
       <c r="D22" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="11">
         <v>1173785966</v>
       </c>
       <c r="F22">
@@ -2053,7 +2059,7 @@
       <c r="H29" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="15"/>
+      <c r="I29" s="14"/>
     </row>
     <row r="30" customFormat="1" customHeight="1" spans="1:9">
       <c r="A30" s="5">
@@ -2080,7 +2086,7 @@
       <c r="H30" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="14" t="s">
+      <c r="I30" s="13" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2124,7 +2130,7 @@
       <c r="D32" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="12" t="s">
         <v>70</v>
       </c>
       <c r="F32" s="7">
@@ -2385,7 +2391,7 @@
       <c r="C43">
         <v>313095</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E43" t="s">
@@ -2398,6 +2404,32 @@
         <v>86</v>
       </c>
       <c r="H43" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:8">
+      <c r="A44" s="5">
+        <v>43883</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44">
+        <v>308095</v>
+      </c>
+      <c r="D44" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44">
+        <v>5000</v>
+      </c>
+      <c r="G44" t="s">
+        <v>89</v>
+      </c>
+      <c r="H44" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2439,13 +2471,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:4">
@@ -2456,7 +2488,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:4">
@@ -2467,7 +2499,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="2:4">
@@ -2475,10 +2507,10 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:4">
@@ -2489,10 +2521,10 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:4">
@@ -2503,10 +2535,10 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/account.xlsx
+++ b/account.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103">
   <si>
     <t>时间</t>
   </si>
@@ -285,6 +285,12 @@
   </si>
   <si>
     <t>做首页gif展示图</t>
+  </si>
+  <si>
+    <t>名</t>
+  </si>
+  <si>
+    <t>锁</t>
   </si>
   <si>
     <t>常用地址</t>
@@ -392,9 +398,70 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -406,8 +473,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,54 +505,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,43 +524,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -528,187 +534,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,6 +725,48 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -754,24 +802,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -795,123 +825,99 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -923,25 +929,25 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -950,22 +956,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1336,12 +1342,12 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G46" sqref="G46"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="22" customHeight="1"/>
@@ -2430,6 +2436,32 @@
         <v>89</v>
       </c>
       <c r="H44" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:8">
+      <c r="A45" s="5">
+        <v>43898</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45">
+        <v>278095</v>
+      </c>
+      <c r="D45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" t="s">
+        <v>90</v>
+      </c>
+      <c r="F45">
+        <v>30000</v>
+      </c>
+      <c r="G45" t="s">
+        <v>91</v>
+      </c>
+      <c r="H45" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2471,13 +2503,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:4">
@@ -2488,7 +2520,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:4">
@@ -2499,7 +2531,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="2:4">
@@ -2507,10 +2539,10 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:4">
@@ -2521,10 +2553,10 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:4">
@@ -2535,10 +2567,10 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/account.xlsx
+++ b/account.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105">
   <si>
     <t>时间</t>
   </si>
@@ -291,6 +291,12 @@
   </si>
   <si>
     <t>锁</t>
+  </si>
+  <si>
+    <t>诺</t>
+  </si>
+  <si>
+    <t>抖音ui</t>
   </si>
   <si>
     <t>常用地址</t>
@@ -331,9 +337,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -411,8 +417,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,6 +441,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -434,24 +456,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,23 +481,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,14 +510,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,31 +546,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,145 +708,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,6 +739,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,31 +777,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,6 +806,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -810,116 +831,101 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -929,22 +935,22 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -956,16 +962,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1342,7 +1348,7 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
@@ -2462,6 +2468,32 @@
         <v>91</v>
       </c>
       <c r="H45" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:8">
+      <c r="A46" s="5">
+        <v>43900</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46">
+        <v>270595</v>
+      </c>
+      <c r="D46" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46">
+        <v>7500</v>
+      </c>
+      <c r="G46" t="s">
+        <v>93</v>
+      </c>
+      <c r="H46" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2503,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:4">
@@ -2520,7 +2552,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:4">
@@ -2531,7 +2563,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="2:4">
@@ -2539,10 +2571,10 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:4">
@@ -2553,10 +2585,10 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:4">
@@ -2567,10 +2599,10 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/account.xlsx
+++ b/account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15600"/>
+    <workbookView windowWidth="28000" windowHeight="16200"/>
   </bookViews>
   <sheets>
     <sheet name="JZT账本" sheetId="1" r:id="rId1"/>
@@ -338,9 +338,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -403,23 +403,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,8 +425,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -449,33 +449,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -487,15 +472,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,9 +495,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,187 +540,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,30 +731,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -777,16 +753,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,21 +797,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -831,99 +807,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -935,22 +935,22 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -962,22 +962,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1353,7 +1353,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
+      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="22" customHeight="1"/>
@@ -2479,7 +2479,7 @@
         <v>14</v>
       </c>
       <c r="C46">
-        <v>270595</v>
+        <v>263095</v>
       </c>
       <c r="D46" t="s">
         <v>75</v>
@@ -2488,7 +2488,7 @@
         <v>92</v>
       </c>
       <c r="F46">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="G46" t="s">
         <v>93</v>

--- a/account.xlsx
+++ b/account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="16200"/>
+    <workbookView windowWidth="28000" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="JZT账本" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
   <si>
     <t>时间</t>
   </si>
@@ -297,6 +297,15 @@
   </si>
   <si>
     <t>抖音ui</t>
+  </si>
+  <si>
+    <t>0xfd63bcd21150c7150b377939d5fc1ed22bafb42c</t>
+  </si>
+  <si>
+    <t>goodname</t>
+  </si>
+  <si>
+    <t>改bug</t>
   </si>
   <si>
     <t>常用地址</t>
@@ -338,9 +347,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -403,11 +412,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -425,6 +433,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -433,18 +449,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -458,30 +474,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,7 +489,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,19 +497,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -530,6 +517,28 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -540,19 +549,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,73 +711,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,85 +729,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,32 +746,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,6 +763,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,6 +803,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -826,8 +835,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -836,148 +845,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1348,12 +1357,12 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
+      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="22" customHeight="1"/>
@@ -2494,6 +2503,32 @@
         <v>93</v>
       </c>
       <c r="H46" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:8">
+      <c r="A47" s="5">
+        <v>43903</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47">
+        <v>260095</v>
+      </c>
+      <c r="D47" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47" t="s">
+        <v>95</v>
+      </c>
+      <c r="F47">
+        <v>3000</v>
+      </c>
+      <c r="G47" t="s">
+        <v>96</v>
+      </c>
+      <c r="H47" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2535,13 +2570,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:4">
@@ -2552,7 +2587,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:4">
@@ -2563,7 +2598,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="2:4">
@@ -2571,10 +2606,10 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:4">
@@ -2585,10 +2620,10 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:4">
@@ -2599,10 +2634,10 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/account.xlsx
+++ b/account.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
   <si>
     <t>时间</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>改bug</t>
+  </si>
+  <si>
+    <t>改变量名</t>
   </si>
   <si>
     <t>常用地址</t>
@@ -346,9 +349,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -433,14 +436,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -449,18 +444,26 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -474,7 +477,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,18 +506,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -518,23 +536,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,181 +558,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,6 +755,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -763,15 +775,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,17 +794,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -813,6 +805,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,124 +848,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -971,16 +974,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1357,12 +1360,12 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="22" customHeight="1"/>
@@ -2529,6 +2532,58 @@
         <v>96</v>
       </c>
       <c r="H47" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:8">
+      <c r="A48" s="5">
+        <v>43904</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48">
+        <v>256595</v>
+      </c>
+      <c r="D48" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48">
+        <v>1000</v>
+      </c>
+      <c r="G48" t="s">
+        <v>97</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:8">
+      <c r="A49" s="5">
+        <v>43904</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49">
+        <v>257595</v>
+      </c>
+      <c r="D49" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" t="s">
+        <v>95</v>
+      </c>
+      <c r="F49">
+        <v>1500</v>
+      </c>
+      <c r="G49" t="s">
+        <v>96</v>
+      </c>
+      <c r="H49" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2570,13 +2625,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:4">
@@ -2587,7 +2642,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:4">
@@ -2598,7 +2653,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="2:4">
@@ -2606,10 +2661,10 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:4">
@@ -2620,10 +2675,10 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:4">
@@ -2634,10 +2689,10 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/account.xlsx
+++ b/account.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112">
   <si>
     <t>时间</t>
   </si>
@@ -309,6 +309,15 @@
   </si>
   <si>
     <t>改变量名</t>
+  </si>
+  <si>
+    <t>0x97f85e52d5be83ca903636b11f6c6b6ecca647a8</t>
+  </si>
+  <si>
+    <t>readme</t>
+  </si>
+  <si>
+    <t>自定义全ui</t>
   </si>
   <si>
     <t>常用地址</t>
@@ -349,10 +358,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -416,14 +425,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,26 +462,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -475,9 +485,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,8 +514,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,16 +537,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,21 +546,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,187 +561,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,47 +758,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,17 +775,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,7 +798,57 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,124 +857,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -974,22 +983,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1360,12 +1369,12 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="22" customHeight="1"/>
@@ -2584,6 +2593,52 @@
         <v>96</v>
       </c>
       <c r="H49" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:8">
+      <c r="A50" s="5">
+        <v>43905</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50">
+        <v>246595</v>
+      </c>
+      <c r="F50">
+        <v>10000</v>
+      </c>
+      <c r="G50" t="s">
+        <v>74</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:8">
+      <c r="A51" s="5">
+        <v>43910</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51">
+        <v>171595</v>
+      </c>
+      <c r="D51" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" t="s">
+        <v>99</v>
+      </c>
+      <c r="F51">
+        <v>75000</v>
+      </c>
+      <c r="G51" t="s">
+        <v>100</v>
+      </c>
+      <c r="H51" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2625,13 +2680,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:4">
@@ -2642,7 +2697,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:4">
@@ -2653,7 +2708,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="2:4">
@@ -2661,10 +2716,10 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:4">
@@ -2675,10 +2730,10 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:4">
@@ -2689,10 +2744,10 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/account.xlsx
+++ b/account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15600"/>
+    <workbookView windowWidth="28000" windowHeight="16200"/>
   </bookViews>
   <sheets>
     <sheet name="JZT账本" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114">
   <si>
     <t>时间</t>
   </si>
@@ -318,6 +318,12 @@
   </si>
   <si>
     <t>自定义全ui</t>
+  </si>
+  <si>
+    <t>libration</t>
+  </si>
+  <si>
+    <t>bug</t>
   </si>
   <si>
     <t>常用地址</t>
@@ -358,10 +364,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -431,6 +437,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -441,14 +498,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,95 +551,12 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -561,37 +567,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,145 +717,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,8 +764,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,16 +801,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -832,23 +853,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -857,148 +863,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1369,12 +1375,12 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="22" customHeight="1"/>
@@ -2639,6 +2645,32 @@
         <v>100</v>
       </c>
       <c r="H51" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:8">
+      <c r="A52" s="5">
+        <v>43919</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52">
+        <v>164095</v>
+      </c>
+      <c r="D52" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52" t="s">
+        <v>101</v>
+      </c>
+      <c r="F52">
+        <v>7500</v>
+      </c>
+      <c r="G52" t="s">
+        <v>102</v>
+      </c>
+      <c r="H52" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2680,13 +2712,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:4">
@@ -2697,7 +2729,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:4">
@@ -2708,7 +2740,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="2:4">
@@ -2716,10 +2748,10 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:4">
@@ -2730,10 +2762,10 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:4">
@@ -2744,10 +2776,10 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/account.xlsx
+++ b/account.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121">
   <si>
     <t>时间</t>
   </si>
@@ -324,6 +324,27 @@
   </si>
   <si>
     <t>bug</t>
+  </si>
+  <si>
+    <t>demo目录</t>
+  </si>
+  <si>
+    <t>群加人</t>
+  </si>
+  <si>
+    <t>0x4d2b4ece7d331204c4425f640a9076cb67da8c69</t>
+  </si>
+  <si>
+    <t>jany</t>
+  </si>
+  <si>
+    <t>mute unmute function</t>
+  </si>
+  <si>
+    <t>luguo</t>
+  </si>
+  <si>
+    <t>gif 截图</t>
   </si>
   <si>
     <t>常用地址</t>
@@ -365,8 +386,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -431,6 +452,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -444,8 +472,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,29 +512,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,40 +526,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,12 +556,28 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -579,169 +600,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,17 +791,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,40 +831,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,99 +864,114 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -959,28 +980,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -989,22 +1010,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1375,12 +1396,12 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="22" customHeight="1"/>
@@ -2671,6 +2692,110 @@
         <v>102</v>
       </c>
       <c r="H52" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:8">
+      <c r="A53" s="5">
+        <v>43932</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53">
+        <v>149095</v>
+      </c>
+      <c r="D53" t="s">
+        <v>55</v>
+      </c>
+      <c r="E53" t="s">
+        <v>101</v>
+      </c>
+      <c r="F53">
+        <v>15000</v>
+      </c>
+      <c r="G53" t="s">
+        <v>103</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:8">
+      <c r="A54" s="5">
+        <v>43932</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54">
+        <v>145095</v>
+      </c>
+      <c r="D54" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" t="s">
+        <v>90</v>
+      </c>
+      <c r="F54">
+        <v>4000</v>
+      </c>
+      <c r="G54" t="s">
+        <v>104</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:8">
+      <c r="A55" s="5">
+        <v>43932</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55">
+        <v>137595</v>
+      </c>
+      <c r="D55" t="s">
+        <v>105</v>
+      </c>
+      <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55">
+        <v>7500</v>
+      </c>
+      <c r="G55" t="s">
+        <v>107</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:8">
+      <c r="A56" s="5">
+        <v>43932</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56">
+        <v>122595</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56">
+        <v>15000</v>
+      </c>
+      <c r="G56" t="s">
+        <v>109</v>
+      </c>
+      <c r="H56" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2712,13 +2837,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:4">
@@ -2729,7 +2854,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:4">
@@ -2740,7 +2865,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="2:4">
@@ -2748,10 +2873,10 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:4">
@@ -2762,10 +2887,10 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:4">
@@ -2776,10 +2901,10 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/account.xlsx
+++ b/account.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
   <si>
     <t>时间</t>
   </si>
@@ -345,6 +345,15 @@
   </si>
   <si>
     <t>gif 截图</t>
+  </si>
+  <si>
+    <t>0x8c9562b5292f7a4a6e07815b4f1625c1423893a0</t>
+  </si>
+  <si>
+    <t>hrystal</t>
+  </si>
+  <si>
+    <t>咨询服务赠送</t>
   </si>
   <si>
     <t>常用地址</t>
@@ -451,10 +460,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -481,16 +491,31 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,6 +523,36 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,21 +573,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -541,43 +581,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -588,67 +597,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,19 +753,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,55 +765,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,31 +777,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,8 +794,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,6 +830,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -815,17 +854,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,35 +882,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -884,148 +893,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1396,12 +1405,12 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
+      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="22" customHeight="1"/>
@@ -2796,6 +2805,32 @@
         <v>109</v>
       </c>
       <c r="H56" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:8">
+      <c r="A57" s="5">
+        <v>43942</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57">
+        <v>120095</v>
+      </c>
+      <c r="D57" t="s">
+        <v>110</v>
+      </c>
+      <c r="E57" t="s">
+        <v>111</v>
+      </c>
+      <c r="F57">
+        <v>2500</v>
+      </c>
+      <c r="G57" t="s">
+        <v>112</v>
+      </c>
+      <c r="H57" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2837,13 +2872,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:4">
@@ -2854,7 +2889,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:4">
@@ -2865,7 +2900,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="2:4">
@@ -2873,10 +2908,10 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:4">
@@ -2887,10 +2922,10 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:4">
@@ -2901,10 +2936,10 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/account.xlsx
+++ b/account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="16200"/>
+    <workbookView windowWidth="28000" windowHeight="15560"/>
   </bookViews>
   <sheets>
     <sheet name="JZT账本" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125">
   <si>
     <t>时间</t>
   </si>
@@ -354,6 +354,9 @@
   </si>
   <si>
     <t>咨询服务赠送</t>
+  </si>
+  <si>
+    <t>清晰度</t>
   </si>
   <si>
     <t>常用地址</t>
@@ -394,10 +397,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -460,31 +463,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,8 +485,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,7 +533,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,39 +548,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -573,8 +575,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,25 +600,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,157 +780,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,6 +791,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -815,6 +842,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -826,30 +862,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,162 +891,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1405,12 +1408,12 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
+      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="22" customHeight="1"/>
@@ -2831,6 +2834,32 @@
         <v>112</v>
       </c>
       <c r="H57" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:8">
+      <c r="A58" s="5">
+        <v>43947</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58">
+        <v>105095</v>
+      </c>
+      <c r="D58" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" t="s">
+        <v>90</v>
+      </c>
+      <c r="F58">
+        <v>15000</v>
+      </c>
+      <c r="G58" t="s">
+        <v>113</v>
+      </c>
+      <c r="H58" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2872,13 +2901,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:4">
@@ -2889,7 +2918,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:4">
@@ -2900,7 +2929,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="2:4">
@@ -2908,10 +2937,10 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:4">
@@ -2922,10 +2951,10 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:4">
@@ -2936,10 +2965,10 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/account.xlsx
+++ b/account.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130">
   <si>
     <t>时间</t>
   </si>
@@ -357,6 +357,21 @@
   </si>
   <si>
     <t>清晰度</t>
+  </si>
+  <si>
+    <t>4月</t>
+  </si>
+  <si>
+    <t>4月+3月</t>
+  </si>
+  <si>
+    <t>0x83c41a79ef1021780ccd38df075f755c9745c9d9</t>
+  </si>
+  <si>
+    <t>steven</t>
+  </si>
+  <si>
+    <t>手势滑动bug</t>
   </si>
   <si>
     <t>常用地址</t>
@@ -397,8 +412,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -471,6 +486,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -479,7 +501,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,13 +515,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -509,15 +524,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,6 +554,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -548,36 +569,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,6 +582,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -597,6 +612,72 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -606,13 +687,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,25 +777,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,133 +789,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,17 +818,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -823,21 +834,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -866,13 +862,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -891,129 +891,144 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1022,19 +1037,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1408,12 +1423,12 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
+      <selection pane="bottomLeft" activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="22" customHeight="1"/>
@@ -2860,6 +2875,136 @@
         <v>113</v>
       </c>
       <c r="H58" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:8">
+      <c r="A59" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59">
+        <v>100095</v>
+      </c>
+      <c r="D59" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" t="s">
+        <v>90</v>
+      </c>
+      <c r="F59">
+        <v>5000</v>
+      </c>
+      <c r="G59" t="s">
+        <v>114</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:8">
+      <c r="A60" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60">
+        <v>95095</v>
+      </c>
+      <c r="D60" t="s">
+        <v>98</v>
+      </c>
+      <c r="E60" t="s">
+        <v>99</v>
+      </c>
+      <c r="F60">
+        <v>5000</v>
+      </c>
+      <c r="G60" t="s">
+        <v>114</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:8">
+      <c r="A61" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61">
+        <v>87095</v>
+      </c>
+      <c r="D61" t="s">
+        <v>55</v>
+      </c>
+      <c r="E61" t="s">
+        <v>101</v>
+      </c>
+      <c r="F61">
+        <v>8000</v>
+      </c>
+      <c r="G61" t="s">
+        <v>115</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:8">
+      <c r="A62" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62">
+        <v>84095</v>
+      </c>
+      <c r="D62" t="s">
+        <v>116</v>
+      </c>
+      <c r="E62" t="s">
+        <v>117</v>
+      </c>
+      <c r="F62">
+        <v>3000</v>
+      </c>
+      <c r="G62" t="s">
+        <v>114</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:8">
+      <c r="A63" s="5">
+        <v>43950</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63">
+        <v>76595</v>
+      </c>
+      <c r="D63" t="s">
+        <v>116</v>
+      </c>
+      <c r="E63" t="s">
+        <v>117</v>
+      </c>
+      <c r="F63">
+        <v>7500</v>
+      </c>
+      <c r="G63" t="s">
+        <v>118</v>
+      </c>
+      <c r="H63" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2901,13 +3046,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:4">
@@ -2918,7 +3063,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:4">
@@ -2929,7 +3074,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="2:4">
@@ -2937,10 +3082,10 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:4">
@@ -2951,10 +3096,10 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:4">
@@ -2965,10 +3110,10 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/account.xlsx
+++ b/account.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133">
   <si>
     <t>时间</t>
   </si>
@@ -372,6 +372,15 @@
   </si>
   <si>
     <t>手势滑动bug</t>
+  </si>
+  <si>
+    <t>0xcd601f2b8d4c6555a74fdc9d50ead14c16f151c1</t>
+  </si>
+  <si>
+    <t>zxy</t>
+  </si>
+  <si>
+    <t>修复热门bug</t>
   </si>
   <si>
     <t>常用地址</t>
@@ -412,10 +421,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -479,7 +488,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,21 +496,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,7 +510,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -524,14 +526,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,55 +594,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -615,7 +624,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,37 +750,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,61 +768,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,31 +786,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,31 +798,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,67 +821,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -906,153 +856,212 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1423,12 +1432,12 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F63" sqref="F63"/>
+      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="22" customHeight="1"/>
@@ -3005,6 +3014,32 @@
         <v>118</v>
       </c>
       <c r="H63" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:8">
+      <c r="A64" s="5">
+        <v>43952</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64">
+        <v>69595</v>
+      </c>
+      <c r="D64" t="s">
+        <v>119</v>
+      </c>
+      <c r="E64" t="s">
+        <v>120</v>
+      </c>
+      <c r="F64">
+        <v>7000</v>
+      </c>
+      <c r="G64" t="s">
+        <v>121</v>
+      </c>
+      <c r="H64" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3046,13 +3081,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:4">
@@ -3063,7 +3098,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:4">
@@ -3074,7 +3109,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="2:4">
@@ -3082,10 +3117,10 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:4">
@@ -3096,10 +3131,10 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:4">
@@ -3110,10 +3145,10 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/account.xlsx
+++ b/account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15560"/>
+    <workbookView windowWidth="28000" windowHeight="16200"/>
   </bookViews>
   <sheets>
     <sheet name="JZT账本" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137">
   <si>
     <t>时间</t>
   </si>
@@ -381,6 +381,18 @@
   </si>
   <si>
     <t>修复热门bug</t>
+  </si>
+  <si>
+    <t>main tab</t>
+  </si>
+  <si>
+    <t>0x33d06c89ea687194db039f5bd8286ac456d37f87</t>
+  </si>
+  <si>
+    <t>zsj</t>
+  </si>
+  <si>
+    <t>发现并协助解决loading bug</t>
   </si>
   <si>
     <t>常用地址</t>
@@ -421,9 +433,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -488,52 +500,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,36 +516,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,6 +552,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -608,10 +597,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -624,31 +636,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,43 +654,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,25 +690,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,13 +738,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,13 +774,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,13 +798,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,21 +835,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -866,17 +863,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -905,13 +898,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,85 +932,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1007,7 +1019,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1016,28 +1028,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1046,22 +1058,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1432,12 +1444,12 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
+      <selection pane="bottomLeft" activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="22" customHeight="1"/>
@@ -3040,6 +3052,58 @@
         <v>121</v>
       </c>
       <c r="H64" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:8">
+      <c r="A65" s="5">
+        <v>43963</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65">
+        <v>39595</v>
+      </c>
+      <c r="D65" t="s">
+        <v>116</v>
+      </c>
+      <c r="E65" t="s">
+        <v>117</v>
+      </c>
+      <c r="F65">
+        <v>30000</v>
+      </c>
+      <c r="G65" t="s">
+        <v>122</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:8">
+      <c r="A66" s="5">
+        <v>43965</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66">
+        <v>37595</v>
+      </c>
+      <c r="D66" t="s">
+        <v>123</v>
+      </c>
+      <c r="E66" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66">
+        <v>2000</v>
+      </c>
+      <c r="G66" t="s">
+        <v>125</v>
+      </c>
+      <c r="H66" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3081,13 +3145,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:4">
@@ -3098,7 +3162,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:4">
@@ -3109,7 +3173,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="2:4">
@@ -3117,10 +3181,10 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:4">
@@ -3131,10 +3195,10 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:4">
@@ -3145,10 +3209,10 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/account.xlsx
+++ b/account.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139">
   <si>
     <t>时间</t>
   </si>
@@ -393,6 +393,12 @@
   </si>
   <si>
     <t>发现并协助解决loading bug</t>
+  </si>
+  <si>
+    <t>待用</t>
+  </si>
+  <si>
+    <t>修复bug和解决重要问题</t>
   </si>
   <si>
     <t>常用地址</t>
@@ -435,8 +441,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -499,21 +505,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -529,10 +520,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -544,9 +558,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,52 +632,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -636,13 +642,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,7 +660,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,61 +708,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,19 +720,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,31 +744,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,25 +768,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,21 +845,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -870,6 +861,51 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -897,129 +933,99 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1028,28 +1034,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1058,22 +1064,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1444,12 +1450,12 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E67" sqref="E67"/>
+      <selection pane="bottomLeft" activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="22" customHeight="1"/>
@@ -3104,6 +3110,58 @@
         <v>125</v>
       </c>
       <c r="H66" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:8">
+      <c r="A67" s="5">
+        <v>43975</v>
+      </c>
+      <c r="B67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67">
+        <v>537595</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" t="s">
+        <v>68</v>
+      </c>
+      <c r="F67">
+        <v>500000</v>
+      </c>
+      <c r="G67" t="s">
+        <v>126</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:8">
+      <c r="A68" s="5">
+        <v>43975</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68">
+        <v>485095</v>
+      </c>
+      <c r="D68" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" t="s">
+        <v>27</v>
+      </c>
+      <c r="F68">
+        <v>52500</v>
+      </c>
+      <c r="G68" t="s">
+        <v>127</v>
+      </c>
+      <c r="H68" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3145,13 +3203,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:4">
@@ -3162,7 +3220,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:4">
@@ -3173,7 +3231,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="2:4">
@@ -3181,10 +3239,10 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:4">
@@ -3195,10 +3253,10 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:4">
@@ -3209,10 +3267,10 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/account.xlsx
+++ b/account.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146">
   <si>
     <t>时间</t>
   </si>
@@ -399,6 +399,27 @@
   </si>
   <si>
     <t>修复bug和解决重要问题</t>
+  </si>
+  <si>
+    <t>0x7963ee792f54bfde16c4f948c154d47da75ebc10</t>
+  </si>
+  <si>
+    <t>monster</t>
+  </si>
+  <si>
+    <t>亮度调节手势位置bug</t>
+  </si>
+  <si>
+    <t>再见</t>
+  </si>
+  <si>
+    <t>解决ijk倍速问题</t>
+  </si>
+  <si>
+    <t>6饺子开发者</t>
+  </si>
+  <si>
+    <t>5月的jzt</t>
   </si>
   <si>
     <t>常用地址</t>
@@ -439,10 +460,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -505,6 +526,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -535,23 +563,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -567,52 +580,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,6 +609,50 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -642,7 +663,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,13 +681,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,151 +837,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,17 +875,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -876,36 +886,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -933,99 +913,140 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1037,25 +1058,25 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1064,22 +1085,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1450,12 +1471,12 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G70" sqref="G70"/>
+      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="22" customHeight="1"/>
@@ -3162,6 +3183,81 @@
         <v>127</v>
       </c>
       <c r="H68" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:8">
+      <c r="A69" s="5">
+        <v>43980</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69">
+        <v>483095</v>
+      </c>
+      <c r="D69" t="s">
+        <v>128</v>
+      </c>
+      <c r="E69" t="s">
+        <v>129</v>
+      </c>
+      <c r="F69">
+        <v>2000</v>
+      </c>
+      <c r="G69" t="s">
+        <v>130</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:8">
+      <c r="A70" s="5">
+        <v>43980</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70">
+        <v>481095</v>
+      </c>
+      <c r="D70" t="s">
+        <v>119</v>
+      </c>
+      <c r="E70" t="s">
+        <v>131</v>
+      </c>
+      <c r="F70">
+        <v>2000</v>
+      </c>
+      <c r="G70" t="s">
+        <v>132</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:8">
+      <c r="A71" s="5">
+        <v>43985</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71">
+        <v>451095</v>
+      </c>
+      <c r="E71" t="s">
+        <v>133</v>
+      </c>
+      <c r="F71">
+        <v>30000</v>
+      </c>
+      <c r="G71" t="s">
+        <v>134</v>
+      </c>
+      <c r="H71" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3203,13 +3299,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:4">
@@ -3220,7 +3316,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:4">
@@ -3231,7 +3327,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="2:4">
@@ -3239,10 +3335,10 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:4">
@@ -3253,10 +3349,10 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:4">
@@ -3267,10 +3363,10 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/account.xlsx
+++ b/account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="16200"/>
+    <workbookView windowWidth="28000" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="JZT账本" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148">
   <si>
     <t>时间</t>
   </si>
@@ -420,6 +420,12 @@
   </si>
   <si>
     <t>5月的jzt</t>
+  </si>
+  <si>
+    <t>3饺子开发者</t>
+  </si>
+  <si>
+    <t>6月的jzt</t>
   </si>
   <si>
     <t>常用地址</t>
@@ -460,10 +466,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -527,22 +533,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -563,8 +561,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -579,6 +584,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -588,15 +607,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -626,21 +646,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -663,7 +669,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,19 +687,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,25 +699,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,7 +735,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,37 +789,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,7 +819,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,49 +831,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,8 +866,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -870,56 +876,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -954,99 +910,149 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1055,28 +1061,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1085,22 +1091,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1471,12 +1477,12 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
+      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="22" customHeight="1"/>
@@ -3258,6 +3264,29 @@
         <v>134</v>
       </c>
       <c r="H71" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:8">
+      <c r="A72" s="5">
+        <v>44013</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72">
+        <v>436095</v>
+      </c>
+      <c r="E72" t="s">
+        <v>135</v>
+      </c>
+      <c r="F72">
+        <v>15000</v>
+      </c>
+      <c r="G72" t="s">
+        <v>136</v>
+      </c>
+      <c r="H72" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3299,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:4">
@@ -3316,7 +3345,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:4">
@@ -3327,7 +3356,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="2:4">
@@ -3335,10 +3364,10 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:4">
@@ -3349,10 +3378,10 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:4">
@@ -3363,10 +3392,10 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/account.xlsx
+++ b/account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13200"/>
+    <workbookView windowWidth="24800" windowHeight="11200"/>
   </bookViews>
   <sheets>
     <sheet name="JZT账本" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150">
   <si>
     <t>时间</t>
   </si>
@@ -426,6 +426,12 @@
   </si>
   <si>
     <t>6月的jzt</t>
+  </si>
+  <si>
+    <t>khr</t>
+  </si>
+  <si>
+    <t>集成阿里播放内核</t>
   </si>
   <si>
     <t>常用地址</t>
@@ -466,10 +472,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -540,6 +546,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -555,16 +568,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -576,16 +590,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,24 +606,22 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,29 +637,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,7 +675,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,61 +837,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,109 +849,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,15 +878,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -892,6 +889,56 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -911,47 +958,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -965,145 +971,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1477,12 +1483,12 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
+      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="22" customHeight="1"/>
@@ -3287,6 +3293,32 @@
         <v>136</v>
       </c>
       <c r="H72" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:8">
+      <c r="A73" s="5">
+        <v>44078</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73">
+        <v>426095</v>
+      </c>
+      <c r="D73" t="s">
+        <v>110</v>
+      </c>
+      <c r="E73" t="s">
+        <v>137</v>
+      </c>
+      <c r="F73">
+        <v>10000</v>
+      </c>
+      <c r="G73" t="s">
+        <v>138</v>
+      </c>
+      <c r="H73" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3328,13 +3360,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:4">
@@ -3345,7 +3377,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:4">
@@ -3356,7 +3388,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="2:4">
@@ -3364,10 +3396,10 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:4">
@@ -3378,10 +3410,10 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:4">
@@ -3392,10 +3424,10 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/account.xlsx
+++ b/account.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153">
   <si>
     <t>时间</t>
   </si>
@@ -432,6 +432,15 @@
   </si>
   <si>
     <t>集成阿里播放内核</t>
+  </si>
+  <si>
+    <t>0x267dd30102555d422843d22e90218b54b9f1cfc2</t>
+  </si>
+  <si>
+    <t>believe</t>
+  </si>
+  <si>
+    <t>修复librarybug</t>
   </si>
   <si>
     <t>常用地址</t>
@@ -472,10 +481,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -546,14 +555,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,13 +573,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -590,16 +592,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,21 +609,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -643,9 +631,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,7 +654,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -675,7 +684,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,7 +774,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,61 +846,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,97 +864,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,6 +887,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -893,15 +911,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -913,17 +922,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -966,150 +964,161 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1483,7 +1492,7 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
@@ -3319,6 +3328,32 @@
         <v>138</v>
       </c>
       <c r="H73" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:8">
+      <c r="A74" s="5">
+        <v>44079</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74">
+        <v>421095</v>
+      </c>
+      <c r="D74" t="s">
+        <v>139</v>
+      </c>
+      <c r="E74" t="s">
+        <v>140</v>
+      </c>
+      <c r="F74">
+        <v>5000</v>
+      </c>
+      <c r="G74" t="s">
+        <v>141</v>
+      </c>
+      <c r="H74" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3360,13 +3395,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:4">
@@ -3377,7 +3412,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:4">
@@ -3388,7 +3423,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="2:4">
@@ -3396,10 +3431,10 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:4">
@@ -3410,10 +3445,10 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:4">
@@ -3424,10 +3459,10 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/account.xlsx
+++ b/account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24800" windowHeight="11200"/>
+    <workbookView windowWidth="24800" windowHeight="9860"/>
   </bookViews>
   <sheets>
     <sheet name="JZT账本" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155">
   <si>
     <t>时间</t>
   </si>
@@ -441,6 +441,12 @@
   </si>
   <si>
     <t>修复librarybug</t>
+  </si>
+  <si>
+    <t>0xA05c48c24172030Cf3bC485a60E8e83B8F366A0E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liquidity provide </t>
   </si>
   <si>
     <t>常用地址</t>
@@ -481,10 +487,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -548,9 +554,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -562,54 +576,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,22 +591,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -650,6 +610,37 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -668,8 +659,23 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,7 +690,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,19 +714,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,7 +744,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,13 +756,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,55 +798,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,7 +834,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,37 +858,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,8 +887,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -892,6 +913,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -911,6 +956,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -925,149 +981,99 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1076,28 +1082,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1106,22 +1112,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1492,12 +1498,12 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
+      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="22" customHeight="1"/>
@@ -3354,6 +3360,32 @@
         <v>141</v>
       </c>
       <c r="H74" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:8">
+      <c r="A75" s="5">
+        <v>44112</v>
+      </c>
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>998200000</v>
+      </c>
+      <c r="D75" t="s">
+        <v>142</v>
+      </c>
+      <c r="E75" t="s">
+        <v>68</v>
+      </c>
+      <c r="F75">
+        <v>300000</v>
+      </c>
+      <c r="G75" t="s">
+        <v>143</v>
+      </c>
+      <c r="H75" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3395,13 +3427,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:4">
@@ -3412,7 +3444,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:4">
@@ -3423,7 +3455,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="2:4">
@@ -3431,10 +3463,10 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:4">
@@ -3445,10 +3477,10 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:4">
@@ -3459,10 +3491,10 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/account.xlsx
+++ b/account.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156">
   <si>
     <t>时间</t>
   </si>
@@ -447,6 +447,9 @@
   </si>
   <si>
     <t xml:space="preserve">liquidity provide </t>
+  </si>
+  <si>
+    <t>0xE6E5203b83610849F2C1586d27996F93F47e70D9</t>
   </si>
   <si>
     <t>常用地址</t>
@@ -487,12 +490,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -553,8 +556,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,8 +607,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,7 +639,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -598,6 +667,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -613,69 +683,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -690,7 +700,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,31 +796,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,7 +838,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,13 +862,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,109 +880,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,22 +897,37 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -910,18 +935,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -941,42 +959,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -986,124 +996,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1112,26 +1122,26 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1175,6 +1185,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="41" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1498,12 +1511,12 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
+      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="22" customHeight="1"/>
@@ -3386,6 +3399,32 @@
         <v>143</v>
       </c>
       <c r="H75" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:8">
+      <c r="A76" s="5">
+        <v>44112</v>
+      </c>
+      <c r="B76" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76">
+        <v>997900000</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E76" t="s">
+        <v>68</v>
+      </c>
+      <c r="F76">
+        <v>300000</v>
+      </c>
+      <c r="G76" t="s">
+        <v>143</v>
+      </c>
+      <c r="H76" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3427,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:4">
@@ -3444,7 +3483,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:4">
@@ -3455,7 +3494,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="2:4">
@@ -3463,10 +3502,10 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:4">
@@ -3477,10 +3516,10 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:4">
@@ -3491,10 +3530,10 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/account.xlsx
+++ b/account.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161">
   <si>
     <t>时间</t>
   </si>
@@ -450,6 +450,21 @@
   </si>
   <si>
     <t>0xE6E5203b83610849F2C1586d27996F93F47e70D9</t>
+  </si>
+  <si>
+    <t>修复bug</t>
+  </si>
+  <si>
+    <t>0x2B03e4Aa93ce89e5Bd7346A38Ea74c7947193feb</t>
+  </si>
+  <si>
+    <t>转移到链上</t>
+  </si>
+  <si>
+    <t>0xa992c5A3E84c0dB603D41a767969F7d55299bb5B</t>
+  </si>
+  <si>
+    <t>圆角视频</t>
   </si>
   <si>
     <t>常用地址</t>
@@ -490,12 +505,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -512,29 +527,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9.75"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.25"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF586069"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -542,7 +543,43 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,51 +593,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF4D4D4D"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -623,15 +617,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,7 +634,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,14 +665,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -684,8 +672,22 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -700,7 +702,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,7 +732,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,25 +774,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,133 +882,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,6 +920,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -928,6 +939,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -967,181 +993,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1157,37 +1159,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="41" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1511,12 +1504,12 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
+      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="22" customHeight="1"/>
@@ -1564,739 +1557,815 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="21" customHeight="1" spans="1:9">
+    <row r="2" ht="21" customHeight="1" spans="1:10">
       <c r="A2" s="5">
         <v>43564</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="6">
         <v>1000000000</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:9">
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="5">
         <v>43566</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>999500000</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <v>50000</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:8">
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="5">
         <v>43572</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="6">
         <v>499900</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <v>100</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:8">
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="5">
         <v>43574</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6">
         <v>479900</v>
       </c>
-      <c r="F5">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
         <v>20000</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:8">
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="5">
         <v>43574</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6">
         <v>480900</v>
       </c>
-      <c r="F6">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6">
         <v>1000</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:8">
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:10">
       <c r="A7" s="5">
         <v>43579</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6">
         <v>470900</v>
       </c>
-      <c r="F7">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6">
         <v>10000</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:8">
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:10">
       <c r="A8" s="5">
         <v>43590</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6">
         <v>473400</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="6">
         <v>2500</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:8">
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:10">
       <c r="A9" s="5">
         <v>43590</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="6">
         <v>100000</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:8">
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:10">
       <c r="A10" s="5">
         <v>43590</v>
       </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="6">
         <v>40000</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:8">
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:10">
       <c r="A11" s="5">
         <v>43590</v>
       </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="6">
         <v>20000</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:8">
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:10">
       <c r="A12" s="5">
         <v>43590</v>
       </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="6">
         <v>273400</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="6">
         <v>40000</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:8">
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:10">
       <c r="A13" s="5">
         <v>43591</v>
       </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="6">
         <v>253400</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="6">
         <v>20000</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:8">
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:10">
       <c r="A14" s="5">
         <v>43591</v>
       </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="6">
         <v>233400</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="6">
         <v>20000</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:8">
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:10">
       <c r="A15" s="5">
         <v>43591</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6">
         <v>213400</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="6">
         <v>20000</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:8">
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:10">
       <c r="A16" s="5">
         <v>43591</v>
       </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="6">
         <v>193400</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="6">
         <v>20000</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:8">
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:10">
       <c r="A17" s="5">
         <v>43591</v>
       </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="6">
         <v>173400</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="6">
         <v>20000</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:8">
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:10">
       <c r="A18" s="5">
         <v>43593</v>
       </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="6">
         <v>163400</v>
       </c>
-      <c r="F18">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6">
         <v>10000</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:8">
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:10">
       <c r="A19" s="5">
         <v>43597</v>
       </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6">
         <v>143400</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="6">
         <v>20000</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:8">
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:10">
       <c r="A20" s="5">
         <v>43597</v>
       </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="6">
         <v>133400</v>
       </c>
-      <c r="F20">
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6">
         <v>10000</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:8">
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:10">
       <c r="A21" s="5">
         <v>43602</v>
       </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="6">
         <v>113400</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="6">
         <v>20000</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:8">
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:10">
       <c r="A22" s="5">
         <v>43602</v>
       </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22">
+      <c r="B22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="6">
         <v>112400</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E22" s="11">
         <v>1173785966</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="6">
         <v>1000</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:8">
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:10">
       <c r="A23" s="5">
         <v>43613</v>
       </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="6">
         <v>82400</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="6">
         <v>30000</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:8">
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:10">
       <c r="A24" s="5">
         <v>43615</v>
       </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="6">
         <v>72400</v>
       </c>
-      <c r="F24">
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6">
         <v>10000</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" customHeight="1" spans="1:8">
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:10">
       <c r="A25" s="5">
         <v>43616</v>
       </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="6">
         <v>54900</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="6">
         <v>17500</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:8">
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:10">
       <c r="A26" s="5">
         <v>43618</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D26" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="6">
         <v>5000</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:8">
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:10">
       <c r="A27" s="5">
         <v>43618</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D27" t="s">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="6">
         <v>5000</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:8">
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:10">
       <c r="A28" s="5">
         <v>43628</v>
       </c>
-      <c r="B28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28">
+      <c r="B28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="6">
         <v>24900</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="6">
         <v>30000</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:9">
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:10">
       <c r="A29" s="5">
         <v>43629</v>
       </c>
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29">
+      <c r="B29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="6">
         <v>17400</v>
       </c>
-      <c r="E29" t="s">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="14"/>
-    </row>
-    <row r="30" customFormat="1" customHeight="1" spans="1:9">
+      <c r="I29" s="12"/>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" customFormat="1" customHeight="1" spans="1:10">
       <c r="A30" s="5">
         <v>43796</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="6">
         <v>999000000</v>
       </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="D30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="6">
         <v>500000</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="13" t="s">
+      <c r="I30" s="12" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:9">
-      <c r="A31" s="6">
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:10">
+      <c r="A31" s="7">
         <v>43814</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="7">
+      <c r="B31" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="8">
         <v>506400</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="8">
         <v>11000</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H31" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" customHeight="1" spans="1:9">
-      <c r="A32" s="6">
+      <c r="H31" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:10">
+      <c r="A32" s="7">
         <v>43817</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="8">
@@ -2305,1128 +2374,1312 @@
       <c r="D32" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="8">
         <v>7000</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H32" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" customHeight="1" spans="1:9">
-      <c r="A33" s="6">
+      <c r="H32" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I32" s="8"/>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" customHeight="1" spans="1:10">
+      <c r="A33" s="7">
         <v>43828</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="7">
+      <c r="B33" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="8">
         <v>496900</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="8">
         <v>2500</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H33" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" customHeight="1" spans="1:8">
+      <c r="H33" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:10">
       <c r="A34" s="5">
         <v>43834</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34">
+      <c r="B34" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="6">
         <v>495481</v>
       </c>
-      <c r="F34">
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6">
         <v>1419</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H34" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:8">
+      <c r="H34" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:10">
       <c r="A35" s="5">
         <v>43836</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35">
+      <c r="B35" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="6">
         <v>465481</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="6">
         <v>30000</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H35" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:8">
+      <c r="H35" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" customHeight="1" spans="1:10">
       <c r="A36" s="5">
         <v>43845</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36">
+      <c r="B36" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="6">
         <v>454981</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="6">
         <v>10500</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H36" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:8">
+      <c r="H36" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:10">
       <c r="A37" s="5">
         <v>43850</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37">
+      <c r="B37" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="6">
         <v>444981</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="6">
         <v>10000</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="H37" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:8">
+      <c r="H37" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:10">
       <c r="A38" s="5">
         <v>43850</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38">
+      <c r="B38" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="6">
         <v>369981</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="6">
         <v>75000</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H38" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:8">
+      <c r="H38" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" customHeight="1" spans="1:10">
       <c r="A39" s="5">
         <v>43850</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39">
+      <c r="B39" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="6">
         <v>339981</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="6">
         <v>30000</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H39" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="1:8">
+      <c r="H39" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:10">
       <c r="A40" s="5">
         <v>43861</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40">
+      <c r="B40" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="6">
         <v>334095</v>
       </c>
-      <c r="F40">
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6">
         <v>5886</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H40" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:8">
+      <c r="H40" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" customHeight="1" spans="1:10">
       <c r="A41" s="5">
         <v>43868</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41">
+      <c r="B41" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="6">
         <v>324095</v>
       </c>
-      <c r="F41">
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6">
         <v>10000</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H41" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:8">
+      <c r="H41" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" customHeight="1" spans="1:10">
       <c r="A42" s="5">
         <v>43882</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42">
+      <c r="B42" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="6">
         <v>314095</v>
       </c>
-      <c r="F42">
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6">
         <v>10000</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H42" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:8">
+      <c r="H42" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+    </row>
+    <row r="43" customHeight="1" spans="1:10">
       <c r="A43" s="5">
         <v>43883</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43">
+      <c r="B43" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="6">
         <v>313095</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="6">
         <v>1000</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H43" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="1:8">
+      <c r="H43" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44" customHeight="1" spans="1:10">
       <c r="A44" s="5">
         <v>43883</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44">
+      <c r="B44" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="6">
         <v>308095</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="6">
         <v>5000</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="H44" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:8">
+      <c r="H44" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+    </row>
+    <row r="45" customHeight="1" spans="1:10">
       <c r="A45" s="5">
         <v>43898</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45">
+      <c r="B45" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="6">
         <v>278095</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="6">
         <v>30000</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H45" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="1:8">
+      <c r="H45" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+    </row>
+    <row r="46" customHeight="1" spans="1:10">
       <c r="A46" s="5">
         <v>43900</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46">
+      <c r="B46" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="6">
         <v>263095</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="6">
         <v>15000</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H46" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="1:8">
+      <c r="H46" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+    </row>
+    <row r="47" customHeight="1" spans="1:10">
       <c r="A47" s="5">
         <v>43903</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47">
+      <c r="B47" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="6">
         <v>260095</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="6">
         <v>3000</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="H47" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="1:8">
+      <c r="H47" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+    </row>
+    <row r="48" customHeight="1" spans="1:10">
       <c r="A48" s="5">
         <v>43904</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48">
+      <c r="B48" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="6">
         <v>256595</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="6">
         <v>1000</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="H48" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="1:8">
+      <c r="H48" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+    </row>
+    <row r="49" customHeight="1" spans="1:10">
       <c r="A49" s="5">
         <v>43904</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49">
+      <c r="B49" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="6">
         <v>257595</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="6">
         <v>1500</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="H49" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="1:8">
+      <c r="H49" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+    </row>
+    <row r="50" customHeight="1" spans="1:10">
       <c r="A50" s="5">
         <v>43905</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50">
+      <c r="B50" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="6">
         <v>246595</v>
       </c>
-      <c r="F50">
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6">
         <v>10000</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H50" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="1:8">
+      <c r="H50" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+    </row>
+    <row r="51" customHeight="1" spans="1:10">
       <c r="A51" s="5">
         <v>43910</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51">
+      <c r="B51" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="6">
         <v>171595</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="6">
         <v>75000</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="H51" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="1:8">
+      <c r="H51" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+    </row>
+    <row r="52" customHeight="1" spans="1:10">
       <c r="A52" s="5">
         <v>43919</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52">
+      <c r="B52" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="6">
         <v>164095</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="6">
         <v>7500</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="H52" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="1:8">
+      <c r="H52" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+    </row>
+    <row r="53" customHeight="1" spans="1:10">
       <c r="A53" s="5">
         <v>43932</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53">
+      <c r="B53" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="6">
         <v>149095</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="6">
         <v>15000</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="H53" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="1:8">
+      <c r="H53" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+    </row>
+    <row r="54" customHeight="1" spans="1:10">
       <c r="A54" s="5">
         <v>43932</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54">
+      <c r="B54" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="6">
         <v>145095</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="6">
         <v>4000</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="H54" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="1:8">
+      <c r="H54" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+    </row>
+    <row r="55" customHeight="1" spans="1:10">
       <c r="A55" s="5">
         <v>43932</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55">
+      <c r="B55" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="6">
         <v>137595</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="6">
         <v>7500</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H55" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="1:8">
+      <c r="H55" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+    </row>
+    <row r="56" customHeight="1" spans="1:10">
       <c r="A56" s="5">
         <v>43932</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56">
+      <c r="B56" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="6">
         <v>122595</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="6">
         <v>15000</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="H56" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="1:8">
+      <c r="H56" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+    </row>
+    <row r="57" customHeight="1" spans="1:10">
       <c r="A57" s="5">
         <v>43942</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57">
+      <c r="B57" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="6">
         <v>120095</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="6">
         <v>2500</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="H57" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="1:8">
+      <c r="H57" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+    </row>
+    <row r="58" customHeight="1" spans="1:10">
       <c r="A58" s="5">
         <v>43947</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58">
+      <c r="B58" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="6">
         <v>105095</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="6">
         <v>15000</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H58" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="59" customHeight="1" spans="1:8">
+      <c r="H58" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+    </row>
+    <row r="59" customHeight="1" spans="1:10">
       <c r="A59" s="5">
         <v>43950</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C59">
+      <c r="B59" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="6">
         <v>100095</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="6">
         <v>5000</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="H59" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="60" customHeight="1" spans="1:8">
+      <c r="H59" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+    </row>
+    <row r="60" customHeight="1" spans="1:10">
       <c r="A60" s="5">
         <v>43950</v>
       </c>
-      <c r="B60" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C60">
+      <c r="B60" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="6">
         <v>95095</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="6">
         <v>5000</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="H60" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" customHeight="1" spans="1:8">
+      <c r="H60" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+    </row>
+    <row r="61" customHeight="1" spans="1:10">
       <c r="A61" s="5">
         <v>43950</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61">
+      <c r="B61" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="6">
         <v>87095</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="6">
         <v>8000</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="H61" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="62" customHeight="1" spans="1:8">
+      <c r="H61" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+    </row>
+    <row r="62" customHeight="1" spans="1:10">
       <c r="A62" s="5">
         <v>43950</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62">
+      <c r="B62" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="6">
         <v>84095</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="6">
         <v>3000</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="H62" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="63" customHeight="1" spans="1:8">
+      <c r="H62" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+    </row>
+    <row r="63" customHeight="1" spans="1:10">
       <c r="A63" s="5">
         <v>43950</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C63">
+      <c r="B63" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="6">
         <v>76595</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="6">
         <v>7500</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="H63" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="64" customHeight="1" spans="1:8">
+      <c r="H63" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+    </row>
+    <row r="64" customHeight="1" spans="1:10">
       <c r="A64" s="5">
         <v>43952</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64">
+      <c r="B64" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="6">
         <v>69595</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="6">
         <v>7000</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="H64" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="65" customHeight="1" spans="1:8">
+      <c r="H64" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+    </row>
+    <row r="65" customHeight="1" spans="1:10">
       <c r="A65" s="5">
         <v>43963</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C65">
+      <c r="B65" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="6">
         <v>39595</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="6">
         <v>30000</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="H65" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="66" customHeight="1" spans="1:8">
+      <c r="H65" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+    </row>
+    <row r="66" customHeight="1" spans="1:10">
       <c r="A66" s="5">
         <v>43965</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66">
+      <c r="B66" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="6">
         <v>37595</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="6">
         <v>2000</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="H66" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="67" customHeight="1" spans="1:8">
+      <c r="H66" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+    </row>
+    <row r="67" customHeight="1" spans="1:10">
       <c r="A67" s="5">
         <v>43975</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="6">
         <v>537595</v>
       </c>
-      <c r="D67" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" t="s">
-        <v>68</v>
-      </c>
-      <c r="F67">
+      <c r="D67" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F67" s="6">
         <v>500000</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="H67" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="68" customHeight="1" spans="1:8">
+      <c r="H67" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+    </row>
+    <row r="68" customHeight="1" spans="1:10">
       <c r="A68" s="5">
         <v>43975</v>
       </c>
-      <c r="B68" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68">
+      <c r="B68" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="6">
         <v>485095</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="6">
         <v>52500</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="H68" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" customHeight="1" spans="1:8">
+      <c r="H68" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+    </row>
+    <row r="69" customHeight="1" spans="1:10">
       <c r="A69" s="5">
         <v>43980</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69">
+      <c r="B69" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="6">
         <v>483095</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="6">
         <v>2000</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="H69" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" customHeight="1" spans="1:8">
+      <c r="H69" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+    </row>
+    <row r="70" customHeight="1" spans="1:10">
       <c r="A70" s="5">
         <v>43980</v>
       </c>
-      <c r="B70" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C70">
+      <c r="B70" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="6">
         <v>481095</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="6">
         <v>2000</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="H70" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" customHeight="1" spans="1:8">
+      <c r="H70" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+    </row>
+    <row r="71" customHeight="1" spans="1:10">
       <c r="A71" s="5">
         <v>43985</v>
       </c>
-      <c r="B71" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71">
+      <c r="B71" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="6">
         <v>451095</v>
       </c>
-      <c r="E71" t="s">
+      <c r="D71" s="6"/>
+      <c r="E71" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="6">
         <v>30000</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="H71" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="72" customHeight="1" spans="1:8">
+      <c r="H71" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+    </row>
+    <row r="72" customHeight="1" spans="1:10">
       <c r="A72" s="5">
         <v>44013</v>
       </c>
-      <c r="B72" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C72">
+      <c r="B72" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="6">
         <v>436095</v>
       </c>
-      <c r="E72" t="s">
+      <c r="D72" s="6"/>
+      <c r="E72" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="6">
         <v>15000</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="H72" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="73" customHeight="1" spans="1:8">
+      <c r="H72" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+    </row>
+    <row r="73" customHeight="1" spans="1:10">
       <c r="A73" s="5">
         <v>44078</v>
       </c>
-      <c r="B73" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73">
+      <c r="B73" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="6">
         <v>426095</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="6">
         <v>10000</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="H73" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="74" customHeight="1" spans="1:8">
+      <c r="H73" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+    </row>
+    <row r="74" customHeight="1" spans="1:10">
       <c r="A74" s="5">
         <v>44079</v>
       </c>
-      <c r="B74" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C74">
+      <c r="B74" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="6">
         <v>421095</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="6">
         <v>5000</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="H74" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="75" customHeight="1" spans="1:8">
+      <c r="H74" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+    </row>
+    <row r="75" customHeight="1" spans="1:10">
       <c r="A75" s="5">
         <v>44112</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="6">
         <v>998200000</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E75" t="s">
-        <v>68</v>
-      </c>
-      <c r="F75">
+      <c r="E75" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F75" s="6">
         <v>300000</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="H75" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="76" customHeight="1" spans="1:8">
+      <c r="H75" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+    </row>
+    <row r="76" customHeight="1" spans="1:10">
       <c r="A76" s="5">
         <v>44112</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="6">
         <v>997900000</v>
       </c>
-      <c r="D76" s="15" t="s">
+      <c r="D76" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E76" t="s">
-        <v>68</v>
-      </c>
-      <c r="F76">
+      <c r="E76" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F76" s="6">
         <v>300000</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="H76" t="s">
-        <v>68</v>
-      </c>
+      <c r="H76" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+    </row>
+    <row r="77" customHeight="1" spans="1:10">
+      <c r="A77" s="5">
+        <v>44101</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="6">
+        <v>420095</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F77" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+    </row>
+    <row r="78" customHeight="1" spans="1:10">
+      <c r="A78" s="5">
+        <v>44165</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="6">
+        <v>0</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F78" s="6">
+        <v>421095</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+    </row>
+    <row r="79" customHeight="1" spans="1:10">
+      <c r="A79" s="5">
+        <v>44165</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C79" s="6">
+        <v>415095</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F79" s="6">
+        <v>5000</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3466,13 +3719,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:4">
@@ -3483,7 +3736,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:4">
@@ -3494,7 +3747,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="2:4">
@@ -3502,10 +3755,10 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:4">
@@ -3516,10 +3769,10 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:4">
@@ -3530,10 +3783,10 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D6" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
